--- a/ApolloQA/Data/RatingManual/GA/VA00072.AntiTheftCategoryFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00072.AntiTheftCategoryFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00072.AntiTheftCategoryFactors" sheetId="1" r:id="R7d3b1db9afed46a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00072.AntiTheftCategoryFactors" sheetId="1" r:id="Rdd50318edfe94809"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,34 +12,155 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Anti-Theft Category</x:v>
+        <x:v>Fleet Size Lower Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Anti-Theft Category Factor</x:v>
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Vehicle Age Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Vehicle Age Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size_Vehicle Age Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Not Applicable</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0309</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Type 1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0309</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Type 2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0309</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0309</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0309</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0309</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0309</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0309</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
